--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_541.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_541.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32338-d76841-Reviews-Motel_6_Los_Angeles_El_Monte-El_Monte_California.html</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Motel-6-Los-Angeles-El-Monte.h996104.Hotel-Information?chkin=6%2F27%2F2018&amp;chkout=6%2F28%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1529085172110&amp;cancellable=false&amp;regionId=178280&amp;vip=false&amp;c=57b0ff10-bf80-4f93-a076-50e223339cec&amp;mctc=9&amp;exp_dp=71.99&amp;exp_ts=1529085172624&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_541.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_541.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,309 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32338-d76841-r523123598-Motel_6_Los_Angeles_El_Monte-El_Monte_California.html</t>
+  </si>
+  <si>
+    <t>32338</t>
+  </si>
+  <si>
+    <t>76841</t>
+  </si>
+  <si>
+    <t>523123598</t>
+  </si>
+  <si>
+    <t>09/10/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing special </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The front desk staff was great but they couldn't get a clogged sink fixed for 2 days - short handed on Maintenence I believe. They discounted the room and that was appreciated. Not a bad spot for the money, but I've been to other renovated Motel 6s I've enjoyed more. </t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32338-d76841-r478683721-Motel_6_Los_Angeles_El_Monte-El_Monte_California.html</t>
+  </si>
+  <si>
+    <t>478683721</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t>DON'T STAY HERE</t>
+  </si>
+  <si>
+    <t>it was the worst hotel I had stayed in there were roaches everywhere. couldn't sleep killing coach roaches all night. I need a refund. they offered me another room it was dirty and had a lot of coach roaches as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Los Angeles - El Monte, responded to this reviewResponded April 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2017</t>
+  </si>
+  <si>
+    <t>it was the worst hotel I had stayed in there were roaches everywhere. couldn't sleep killing coach roaches all night. I need a refund. they offered me another room it was dirty and had a lot of coach roaches as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32338-d76841-r416159641-Motel_6_Los_Angeles_El_Monte-El_Monte_California.html</t>
+  </si>
+  <si>
+    <t>416159641</t>
+  </si>
+  <si>
+    <t>09/08/2016</t>
+  </si>
+  <si>
+    <t>Wonderful Place - Wonderful People</t>
+  </si>
+  <si>
+    <t>I travel approx. 200 nights annually on business. This hotel is a great place to stay while on business travel. The place is in the process of being updated, the people are what makes this place great. All the front desk team, including Lupe and others consistently greet me in a positive manner upon my check in and check out experience. It's located just off highway 10 near delicious cafes, etc. When in the Los Angeles area, I would highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32338-d76841-r371557651-Motel_6_Los_Angeles_El_Monte-El_Monte_California.html</t>
+  </si>
+  <si>
+    <t>371557651</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>Just the basics</t>
+  </si>
+  <si>
+    <t>Good for travelers on a budget. There are no extras here, No refrigerator or coffee makers but the cable TV has a good variety of channels. However the rooms are recently remodeled and clean. The showers are pretty small like showering in an airplane lavatory. The staff was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Los Angeles - El Monte, responded to this reviewResponded May 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2016</t>
+  </si>
+  <si>
+    <t>Good for travelers on a budget. There are no extras here, No refrigerator or coffee makers but the cable TV has a good variety of channels. However the rooms are recently remodeled and clean. The showers are pretty small like showering in an airplane lavatory. The staff was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32338-d76841-r328391649-Motel_6_Los_Angeles_El_Monte-El_Monte_California.html</t>
+  </si>
+  <si>
+    <t>328391649</t>
+  </si>
+  <si>
+    <t>11/22/2015</t>
+  </si>
+  <si>
+    <t>The next worse motel 6 current reviews have to be lies</t>
+  </si>
+  <si>
+    <t>This place was honestly the more expensive and least impressive. Roche's in room nasty matress'. Sink was not screwed down to basin. Very dirty and trashy furniture. Luggage rack broken and leaning. Trash all over parking lot. Small rooms very ghetto shower set up. One of the worst I have stayed in. Even the ice bucket was dirty. Not a family place the only nice looking thing here is the pool. I will continue to write the most honest reviews. I spend good money with Motel 6 they have continued to disappoint me each location.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Los Angeles - El Monte, responded to this reviewResponded November 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2015</t>
+  </si>
+  <si>
+    <t>This place was honestly the more expensive and least impressive. Roche's in room nasty matress'. Sink was not screwed down to basin. Very dirty and trashy furniture. Luggage rack broken and leaning. Trash all over parking lot. Small rooms very ghetto shower set up. One of the worst I have stayed in. Even the ice bucket was dirty. Not a family place the only nice looking thing here is the pool. I will continue to write the most honest reviews. I spend good money with Motel 6 they have continued to disappoint me each location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32338-d76841-r310779451-Motel_6_Los_Angeles_El_Monte-El_Monte_California.html</t>
+  </si>
+  <si>
+    <t>310779451</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Would stay again!</t>
+  </si>
+  <si>
+    <t>Was a clean and nice place to sleep.  We were out and about all day and it was nice to have somewhere to nice to relax.  Pool was nice, hotel personnel was nice.  It was right next to the freeway, easy to find, gas station right next to it.  Food establishments nearby.  Overall very satisfied with our stay.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32338-d76841-r286731257-Motel_6_Los_Angeles_El_Monte-El_Monte_California.html</t>
+  </si>
+  <si>
+    <t>286731257</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>I chose this property because it was located in a good neighborhood and was quite inexpensive! I was pleasantly surprised at the cleanliness of the room and friendliness of the staff. It's not the Ritz. It's not even Holiday Inn, but for the price, it was quite adequate. It had free off street parking, a nice pool and coin laundry. It is pet friendly, but that didn't cause us any problems with noise. Yes, there is some street and freeway noise. Again, it's not the Ritz. The hardwood floors were actually a plus, because you could tell whether or not they were clean, unlike carpet. Beds were comfortable. Only a small bar of soap... no shampoos or other amenities. I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>I chose this property because it was located in a good neighborhood and was quite inexpensive! I was pleasantly surprised at the cleanliness of the room and friendliness of the staff. It's not the Ritz. It's not even Holiday Inn, but for the price, it was quite adequate. It had free off street parking, a nice pool and coin laundry. It is pet friendly, but that didn't cause us any problems with noise. Yes, there is some street and freeway noise. Again, it's not the Ritz. The hardwood floors were actually a plus, because you could tell whether or not they were clean, unlike carpet. Beds were comfortable. Only a small bar of soap... no shampoos or other amenities. I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32338-d76841-r250279997-Motel_6_Los_Angeles_El_Monte-El_Monte_California.html</t>
+  </si>
+  <si>
+    <t>250279997</t>
+  </si>
+  <si>
+    <t>01/20/2015</t>
+  </si>
+  <si>
+    <t>Comfortable clean room</t>
+  </si>
+  <si>
+    <t>The Motel 6 in El Monte, California was nice. I had a clean comfortable room. It looks like the motel had gone thru a recent renovation as it looked like it had newer laminate wood floors. Everything was clean. The staff at check in was very nice. I  thought the bed was comfortable. It is in a good location near Interstate 10.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32338-d76841-r236129632-Motel_6_Los_Angeles_El_Monte-El_Monte_California.html</t>
+  </si>
+  <si>
+    <t>236129632</t>
+  </si>
+  <si>
+    <t>10/24/2014</t>
+  </si>
+  <si>
+    <t>Bugs bugs bugs</t>
+  </si>
+  <si>
+    <t>This motel 6 is the worse one ever first room 127 my husband had bites all over his lower bodie was moved to another room that room 106 had little white bugs that looked like little ticks everywhere and got bit by a spider on inner thigh bite is the size of a quarter and black went to doctor and was put on meds for infection. Employee by the name of Gayle has a bad additude when i Tryed to tell her.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Los Angeles - El Monte, responded to this reviewResponded November 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2014</t>
+  </si>
+  <si>
+    <t>This motel 6 is the worse one ever first room 127 my husband had bites all over his lower bodie was moved to another room that room 106 had little white bugs that looked like little ticks everywhere and got bit by a spider on inner thigh bite is the size of a quarter and black went to doctor and was put on meds for infection. Employee by the name of Gayle has a bad additude when i Tryed to tell her.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32338-d76841-r145420277-Motel_6_Los_Angeles_El_Monte-El_Monte_California.html</t>
+  </si>
+  <si>
+    <t>145420277</t>
+  </si>
+  <si>
+    <t>11/14/2012</t>
+  </si>
+  <si>
+    <t>WiFi highly unstable</t>
+  </si>
+  <si>
+    <t>The pricing was OK, but nowadays we live in an interconnected world and for me internet based market information is crucial for meat about 10 pm, the WiFi started to give me fits.I had to log-in &amp; re login at 5 minute intervals because the signal kept getting disconnectedfrustrating is but an understatementI last stayed at this El Monte outlet more than 10 years ago. The carpet condition is much better than Motel 6 LAX, they seem to be vacuumed &amp; cleaned regularlyas I checked out, the carpet cleaning crew was hard at workThis Motel 6 location may house some homeless people with the tab picked up by the City of El MonteI stayed over for just 1 niteyou get what you paid for; the TV channels were out of sync..for example, I could be watching CNN; but the display on TV is displaying FOXMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>The pricing was OK, but nowadays we live in an interconnected world and for me internet based market information is crucial for meat about 10 pm, the WiFi started to give me fits.I had to log-in &amp; re login at 5 minute intervals because the signal kept getting disconnectedfrustrating is but an understatementI last stayed at this El Monte outlet more than 10 years ago. The carpet condition is much better than Motel 6 LAX, they seem to be vacuumed &amp; cleaned regularlyas I checked out, the carpet cleaning crew was hard at workThis Motel 6 location may house some homeless people with the tab picked up by the City of El MonteI stayed over for just 1 niteyou get what you paid for; the TV channels were out of sync..for example, I could be watching CNN; but the display on TV is displaying FOXMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32338-d76841-r132932901-Motel_6_Los_Angeles_El_Monte-El_Monte_California.html</t>
+  </si>
+  <si>
+    <t>132932901</t>
+  </si>
+  <si>
+    <t>06/27/2012</t>
+  </si>
+  <si>
+    <t>Crackhead and gangster hangout! Don't even consider staying there.</t>
+  </si>
+  <si>
+    <t>This hotel is a hangout for gang members, crackheads. The absolute worst motel I have ever stayed at not to mention how lucky we are to still be alive. Five hooded individuals (scum) stood out side our door and talked about raping my wife and killing me. This went on for over a hour in the middle of the night. We called the Police and it took them over almost two hours to respond after several calls to 911. We had to be escorted off the property for our safety. The rooms were filthy. What was I thinking. I should of known better when I checked when I saw the glass partition between the front desk and the lobby and you had to talk through a small hole in the glass to check in. Do yourself a favor, DON'T STAY HERE!!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>This hotel is a hangout for gang members, crackheads. The absolute worst motel I have ever stayed at not to mention how lucky we are to still be alive. Five hooded individuals (scum) stood out side our door and talked about raping my wife and killing me. This went on for over a hour in the middle of the night. We called the Police and it took them over almost two hours to respond after several calls to 911. We had to be escorted off the property for our safety. The rooms were filthy. What was I thinking. I should of known better when I checked when I saw the glass partition between the front desk and the lobby and you had to talk through a small hole in the glass to check in. Do yourself a favor, DON'T STAY HERE!!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32338-d76841-r91163303-Motel_6_Los_Angeles_El_Monte-El_Monte_California.html</t>
+  </si>
+  <si>
+    <t>91163303</t>
+  </si>
+  <si>
+    <t>12/30/2010</t>
+  </si>
+  <si>
+    <t>Cheap by All Account</t>
+  </si>
+  <si>
+    <t>We stayed at this place two nights in late December 2010.  The place was easy to find from the direction we got on the GPS.  Our first impression of the motel was not good:  the clerk sat be hind a security desk, conversed with us through a small hole.  I didn't think the area surrounding the motel really call for that.The wall between the rooms was so thin that we could hear the guests from the next room talking all night.  Between their conversation and the traffic noise from the highway, it was difficult to get to sleep.  Bring your earplugs if you decide to stay here.I have stayed in several Motel 6's.  This one was the worst.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>We stayed at this place two nights in late December 2010.  The place was easy to find from the direction we got on the GPS.  Our first impression of the motel was not good:  the clerk sat be hind a security desk, conversed with us through a small hole.  I didn't think the area surrounding the motel really call for that.The wall between the rooms was so thin that we could hear the guests from the next room talking all night.  Between their conversation and the traffic noise from the highway, it was difficult to get to sleep.  Bring your earplugs if you decide to stay here.I have stayed in several Motel 6's.  This one was the worst.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32338-d76841-r4989121-Motel_6_Los_Angeles_El_Monte-El_Monte_California.html</t>
+  </si>
+  <si>
+    <t>4989121</t>
+  </si>
+  <si>
+    <t>04/18/2006</t>
+  </si>
+  <si>
+    <t>They try, but they're still awful</t>
+  </si>
+  <si>
+    <t>I chose this hotel from Orbitz because of its price and the fact that it was listed as having high speed internet.  No internet to be found.  They also list that they have breakfast, when really they only serve coffee in the tiny lobby. I had reserved a non-smoking room, but was given a room where someone had definitely smoked.  I complained about it, and the manager gave me a can of smoke eliminator- which it didn't.  The pool and half of the parking was under construction so it was hard to even get around the property.  It took me hours to fall asleep because of the sound of nearby trains and low-flying helicopters.  I then woke up to the sound of the garbage collectors, who took at least half an hour to do the job.  The area is unappealing and I drove for an hour looking for a grocery store, but couldn't find one.  The only good thing about the place was that the manager was nice and really wanted to be accommodating, but it was clear that this place was a dump.  Good try.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2006</t>
+  </si>
+  <si>
+    <t>I chose this hotel from Orbitz because of its price and the fact that it was listed as having high speed internet.  No internet to be found.  They also list that they have breakfast, when really they only serve coffee in the tiny lobby. I had reserved a non-smoking room, but was given a room where someone had definitely smoked.  I complained about it, and the manager gave me a can of smoke eliminator- which it didn't.  The pool and half of the parking was under construction so it was hard to even get around the property.  It took me hours to fall asleep because of the sound of nearby trains and low-flying helicopters.  I then woke up to the sound of the garbage collectors, who took at least half an hour to do the job.  The area is unappealing and I drove for an hour looking for a grocery store, but couldn't find one.  The only good thing about the place was that the manager was nice and really wanted to be accommodating, but it was clear that this place was a dump.  Good try.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +951,835 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6284</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6284</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6284</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6284</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6284</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6284</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6284</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6284</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6284</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>114</v>
+      </c>
+      <c r="X10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6284</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6284</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>129</v>
+      </c>
+      <c r="O12" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6284</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6284</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>143</v>
+      </c>
+      <c r="O14" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_541.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_541.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="158">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>NoMadsen</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Evelyn P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32338-d76841-r478683721-Motel_6_Los_Angeles_El_Monte-El_Monte_California.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>it was the worst hotel I had stayed in there were roaches everywhere. couldn't sleep killing coach roaches all night. I need a refund. they offered me another room it was dirty and had a lot of coach roaches as well.More</t>
   </si>
   <si>
+    <t>James P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32338-d76841-r416159641-Motel_6_Los_Angeles_El_Monte-El_Monte_California.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>gfrenchman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32338-d76841-r371557651-Motel_6_Los_Angeles_El_Monte-El_Monte_California.html</t>
   </si>
   <si>
@@ -261,6 +273,9 @@
     <t>Good for travelers on a budget. There are no extras here, No refrigerator or coffee makers but the cable TV has a good variety of channels. However the rooms are recently remodeled and clean. The showers are pretty small like showering in an airplane lavatory. The staff was great.More</t>
   </si>
   <si>
+    <t>Christopher S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32338-d76841-r328391649-Motel_6_Los_Angeles_El_Monte-El_Monte_California.html</t>
   </si>
   <si>
@@ -288,6 +303,9 @@
     <t>This place was honestly the more expensive and least impressive. Roche's in room nasty matress'. Sink was not screwed down to basin. Very dirty and trashy furniture. Luggage rack broken and leaning. Trash all over parking lot. Small rooms very ghetto shower set up. One of the worst I have stayed in. Even the ice bucket was dirty. Not a family place the only nice looking thing here is the pool. I will continue to write the most honest reviews. I spend good money with Motel 6 they have continued to disappoint me each location.More</t>
   </si>
   <si>
+    <t>Yadira E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32338-d76841-r310779451-Motel_6_Los_Angeles_El_Monte-El_Monte_California.html</t>
   </si>
   <si>
@@ -306,6 +324,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Warren M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32338-d76841-r286731257-Motel_6_Los_Angeles_El_Monte-El_Monte_California.html</t>
   </si>
   <si>
@@ -327,6 +348,9 @@
     <t>I chose this property because it was located in a good neighborhood and was quite inexpensive! I was pleasantly surprised at the cleanliness of the room and friendliness of the staff. It's not the Ritz. It's not even Holiday Inn, but for the price, it was quite adequate. It had free off street parking, a nice pool and coin laundry. It is pet friendly, but that didn't cause us any problems with noise. Yes, there is some street and freeway noise. Again, it's not the Ritz. The hardwood floors were actually a plus, because you could tell whether or not they were clean, unlike carpet. Beds were comfortable. Only a small bar of soap... no shampoos or other amenities. I would stay there again.More</t>
   </si>
   <si>
+    <t>Happyvacationer49</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32338-d76841-r250279997-Motel_6_Los_Angeles_El_Monte-El_Monte_California.html</t>
   </si>
   <si>
@@ -345,6 +369,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t xml:space="preserve">Amye1978 </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32338-d76841-r236129632-Motel_6_Los_Angeles_El_Monte-El_Monte_California.html</t>
   </si>
   <si>
@@ -369,6 +396,9 @@
     <t>This motel 6 is the worse one ever first room 127 my husband had bites all over his lower bodie was moved to another room that room 106 had little white bugs that looked like little ticks everywhere and got bit by a spider on inner thigh bite is the size of a quarter and black went to doctor and was put on meds for infection. Employee by the name of Gayle has a bad additude when i Tryed to tell her.More</t>
   </si>
   <si>
+    <t>maxus88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32338-d76841-r145420277-Motel_6_Los_Angeles_El_Monte-El_Monte_California.html</t>
   </si>
   <si>
@@ -390,6 +420,9 @@
     <t>The pricing was OK, but nowadays we live in an interconnected world and for me internet based market information is crucial for meat about 10 pm, the WiFi started to give me fits.I had to log-in &amp; re login at 5 minute intervals because the signal kept getting disconnectedfrustrating is but an understatementI last stayed at this El Monte outlet more than 10 years ago. The carpet condition is much better than Motel 6 LAX, they seem to be vacuumed &amp; cleaned regularlyas I checked out, the carpet cleaning crew was hard at workThis Motel 6 location may house some homeless people with the tab picked up by the City of El MonteI stayed over for just 1 niteyou get what you paid for; the TV channels were out of sync..for example, I could be watching CNN; but the display on TV is displaying FOXMore</t>
   </si>
   <si>
+    <t>John S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32338-d76841-r132932901-Motel_6_Los_Angeles_El_Monte-El_Monte_California.html</t>
   </si>
   <si>
@@ -411,6 +444,9 @@
     <t>This hotel is a hangout for gang members, crackheads. The absolute worst motel I have ever stayed at not to mention how lucky we are to still be alive. Five hooded individuals (scum) stood out side our door and talked about raping my wife and killing me. This went on for over a hour in the middle of the night. We called the Police and it took them over almost two hours to respond after several calls to 911. We had to be escorted off the property for our safety. The rooms were filthy. What was I thinking. I should of known better when I checked when I saw the glass partition between the front desk and the lobby and you had to talk through a small hole in the glass to check in. Do yourself a favor, DON'T STAY HERE!!!!!!!!More</t>
   </si>
   <si>
+    <t>TranHungDao</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32338-d76841-r91163303-Motel_6_Los_Angeles_El_Monte-El_Monte_California.html</t>
   </si>
   <si>
@@ -430,6 +466,9 @@
   </si>
   <si>
     <t>We stayed at this place two nights in late December 2010.  The place was easy to find from the direction we got on the GPS.  Our first impression of the motel was not good:  the clerk sat be hind a security desk, conversed with us through a small hole.  I didn't think the area surrounding the motel really call for that.The wall between the rooms was so thin that we could hear the guests from the next room talking all night.  Between their conversation and the traffic noise from the highway, it was difficult to get to sleep.  Bring your earplugs if you decide to stay here.I have stayed in several Motel 6's.  This one was the worst.More</t>
+  </si>
+  <si>
+    <t>Babbbles</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32338-d76841-r4989121-Motel_6_Los_Angeles_El_Monte-El_Monte_California.html</t>
@@ -955,43 +994,47 @@
       <c r="A2" t="n">
         <v>6284</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1005,50 +1048,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>6284</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1064,56 +1111,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>6284</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -1131,50 +1182,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>6284</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1190,56 +1245,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>6284</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1251,56 +1310,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6284</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1318,50 +1381,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6284</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1381,50 +1448,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>6284</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1444,41 +1515,45 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>6284</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -1505,56 +1580,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="X10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>6284</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -1578,50 +1657,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>6284</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="O12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -1645,50 +1728,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>6284</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -1712,50 +1799,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>6284</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>150</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="O14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
@@ -1777,7 +1868,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
